--- a/Documents/Schedule/Logs/nhi - log.xlsx
+++ b/Documents/Schedule/Logs/nhi - log.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhip_1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhip_1/Documents/school/CMPT371/projectdocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23620" windowHeight="20920"/>
+    <workbookView xWindow="9980" yWindow="0" windowWidth="23620" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Name:</t>
   </si>
@@ -108,6 +105,18 @@
   </si>
   <si>
     <t>Dev Team</t>
+  </si>
+  <si>
+    <t>Dev Meeting</t>
+  </si>
+  <si>
+    <t>Development in 386</t>
+  </si>
+  <si>
+    <t>Team Meeting: Presentation, ID1, ID2</t>
+  </si>
+  <si>
+    <t>Presentation Slides</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,11 +277,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,7 +317,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,9 +329,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,7 +600,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,10 +655,9 @@
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="18">
@@ -648,10 +666,9 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
@@ -660,10 +677,9 @@
       <c r="D8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="18">
@@ -672,10 +688,9 @@
       <c r="D9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
@@ -684,10 +699,9 @@
       <c r="D10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>11</v>
       </c>
-      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="18">
@@ -696,10 +710,9 @@
       <c r="D11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
@@ -718,44 +731,74 @@
       <c r="D13" s="10"/>
       <c r="E13" s="12">
         <f>SUM(E6:E12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
         <f>SUM(F6:F12)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="20">
+        <v>42772</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="18">
+        <v>42772</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="18">
+        <v>42775</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="18">
+        <v>42776</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="7"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="C18" s="18">
+        <v>42777</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4</v>
+      </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -768,12 +811,12 @@
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12">
-        <f>SUM(E14:E18)</f>
-        <v>0</v>
+        <f>SUM(E16:E18)</f>
+        <v>8</v>
       </c>
       <c r="F19" s="12">
-        <f>SUM(F14:F18)</f>
-        <v>0</v>
+        <f>SUM(F16:F18)</f>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -941,11 +984,11 @@
       <c r="D38" s="15"/>
       <c r="E38" s="13">
         <f>SUM(E37,E31,E25,E19,E13)</f>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F38" s="13">
         <f>SUM(F37,F31,F25,F19,F13)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
